--- a/Planning/Planning Project.xlsx
+++ b/Planning/Planning Project.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="49">
   <si>
     <t xml:space="preserve">Planning en registratie van de uren </t>
   </si>
@@ -68,27 +68,12 @@
     <t>Totaal</t>
   </si>
   <si>
-    <t>Objecten lijst opstellen</t>
-  </si>
-  <si>
-    <t>Klassen diagram maken</t>
-  </si>
-  <si>
     <t>Takenlijst maken</t>
   </si>
   <si>
     <t>Concurrency model maken</t>
   </si>
   <si>
-    <t>Planning aanpassen</t>
-  </si>
-  <si>
-    <t>State Transition Diagrams maken</t>
-  </si>
-  <si>
-    <t>Team: 7</t>
-  </si>
-  <si>
     <t>Luuk Steeman [teamleider]</t>
   </si>
   <si>
@@ -101,15 +86,6 @@
     <t>Ricardo Bouwman</t>
   </si>
   <si>
-    <t>Verschillende RTOSs zoeken &amp; qualificeren</t>
-  </si>
-  <si>
-    <t>Schrijven van onderzoeks rapport</t>
-  </si>
-  <si>
-    <t>Onderzoeks methoden onderzoeken</t>
-  </si>
-  <si>
     <t>Klassen schrijven</t>
   </si>
   <si>
@@ -125,10 +101,73 @@
     <t>Github managen</t>
   </si>
   <si>
-    <t>Klassen functies implementeren</t>
-  </si>
-  <si>
     <t>(over alle weken)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Objectenlijst opstellen</t>
+  </si>
+  <si>
+    <t>Klassendiagram maken</t>
+  </si>
+  <si>
+    <t>StateTransitionDiagrams maken</t>
+  </si>
+  <si>
+    <t>Onderzoekmethoden onderzoeken</t>
+  </si>
+  <si>
+    <t>Klassenfuncties implementeren</t>
+  </si>
+  <si>
+    <t>Kenmerkende eigenschappen tasks en concurrency mechanismen van Arduino Rtos bepalen</t>
+  </si>
+  <si>
+    <t>Onderzoeken welk RTOS meest overeenkomt met Arduino RTOS</t>
+  </si>
+  <si>
+    <t>Onderzoeken welke mechanismen niet ondersteund worden door beschikbare RTOS-en</t>
+  </si>
+  <si>
+    <t>Onderzoeken hoe de niet ondersteunde mechanismes toch te realiseren zijn</t>
+  </si>
+  <si>
+    <t>review moment</t>
+  </si>
+  <si>
+    <t>MIJLPAAL</t>
+  </si>
+  <si>
+    <t>Onderzoeksrapport inleveren</t>
+  </si>
+  <si>
+    <t>planning aanpassen</t>
+  </si>
+  <si>
+    <t>Solution architecture inleveren</t>
+  </si>
+  <si>
+    <t>Inleiding schrijven</t>
+  </si>
+  <si>
+    <t>Gebruikte onderzoeksmethoden schrijven</t>
+  </si>
+  <si>
+    <t>Onderzoeksresultaten schrijven</t>
+  </si>
+  <si>
+    <t>conclusies en aanbevelingen schrijven</t>
+  </si>
+  <si>
+    <t>Onderzoeksrapport review en laatste aanpassingen</t>
+  </si>
+  <si>
+    <t>code review</t>
+  </si>
+  <si>
+    <t>klassendiagram maken</t>
   </si>
 </sst>
 </file>
@@ -476,15 +515,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -503,6 +533,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -841,17 +880,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L134"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="80.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
@@ -874,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>2</v>
@@ -890,22 +929,22 @@
       <c r="A3" s="25"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="42"/>
+      <c r="D3" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="52"/>
       <c r="L3" s="33" t="s">
         <v>3</v>
       </c>
@@ -954,10 +993,10 @@
       <c r="J5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="45" t="s">
         <v>14</v>
       </c>
     </row>
@@ -968,107 +1007,109 @@
       <c r="B6" s="3">
         <v>42667</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>15</v>
+      <c r="C6" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
+      <c r="E6" s="8">
+        <v>4</v>
       </c>
       <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>10</v>
+      <c r="G6" s="16">
+        <v>4</v>
       </c>
       <c r="H6" s="20">
         <v>3</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>10</v>
+      <c r="I6" s="20">
+        <v>4</v>
       </c>
       <c r="J6" s="17">
         <v>3</v>
       </c>
-      <c r="K6" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="48">
+      <c r="K6" s="41">
+        <v>4</v>
+      </c>
+      <c r="L6" s="45">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="49" t="s">
-        <v>16</v>
+      <c r="C7" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
+      <c r="E7" s="8">
+        <v>4</v>
       </c>
       <c r="F7" s="16">
         <v>4</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>10</v>
+      <c r="G7" s="16">
+        <v>4</v>
       </c>
       <c r="H7" s="20">
         <v>4</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>10</v>
+      <c r="I7" s="20">
+        <v>4</v>
       </c>
       <c r="J7" s="17">
         <v>4</v>
       </c>
-      <c r="K7" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="48">
+      <c r="K7" s="41">
+        <v>4</v>
+      </c>
+      <c r="L7" s="45">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="49" t="s">
-        <v>17</v>
+      <c r="C8" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
+      <c r="E8" s="8">
+        <v>0</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>10</v>
+      <c r="G8" s="16">
+        <v>0</v>
       </c>
       <c r="H8" s="20">
         <v>1</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>10</v>
+      <c r="I8" s="20">
+        <v>0</v>
       </c>
       <c r="J8" s="17">
         <v>1</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="48">
+      <c r="K8" s="41">
+        <v>0</v>
+      </c>
+      <c r="L8" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="16"/>
@@ -1076,193 +1117,183 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="48"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="3">
         <v>42668</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>17</v>
+      <c r="C10" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
         <v>2</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
         <v>2</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41">
         <v>2</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="17">
-        <v>2</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="48">
-        <v>8</v>
-      </c>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="49" t="s">
-        <v>18</v>
+      <c r="C11" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="8">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5</v>
       </c>
       <c r="F11" s="16">
-        <v>4</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="G11" s="16">
+        <v>5</v>
       </c>
       <c r="H11" s="20">
-        <v>4</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="I11" s="20">
+        <v>5</v>
       </c>
       <c r="J11" s="17">
-        <v>4</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="48">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="K11" s="41">
+        <v>5</v>
+      </c>
+      <c r="L11" s="45">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="49" t="s">
-        <v>20</v>
+      <c r="C12" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="8">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="8"/>
       <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="16">
         <v>2</v>
       </c>
-      <c r="G12" s="16"/>
       <c r="H12" s="20">
+        <v>4</v>
+      </c>
+      <c r="I12" s="20">
         <v>2</v>
       </c>
-      <c r="I12" s="20"/>
       <c r="J12" s="17">
+        <v>4</v>
+      </c>
+      <c r="K12" s="41">
         <v>2</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="48">
-        <v>8</v>
+      <c r="L12" s="45">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="48"/>
+      <c r="C13" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>2</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>2</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>2</v>
+      </c>
+      <c r="K13" s="41">
+        <v>0</v>
+      </c>
+      <c r="L13" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="3">
-        <v>42669</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>20</v>
+      <c r="B14" s="3"/>
+      <c r="C14" s="46" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="8">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="16">
-        <v>2</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="20">
-        <v>2</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="17">
-        <v>2</v>
-      </c>
-      <c r="K14" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="48">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="8">
-        <v>6</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="16">
-        <v>6</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="20">
-        <v>6</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="17">
-        <v>6</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="48">
-        <v>24</v>
-      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="50"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="16"/>
@@ -1270,674 +1301,512 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="48"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="3">
-        <v>42670</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>28</v>
+        <v>42669</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="17">
-        <v>7</v>
-      </c>
-      <c r="K17" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="48">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="45">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8">
+        <v>4</v>
+      </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
+      <c r="F18" s="16">
+        <v>4</v>
+      </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="20">
+        <v>4</v>
+      </c>
       <c r="I18" s="20"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="48"/>
+      <c r="J18" s="17">
+        <v>4</v>
+      </c>
+      <c r="K18" s="41"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
-      <c r="B19" s="3">
-        <v>42671</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="8">
-        <v>8</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="16">
-        <v>8</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="20">
-        <v>8</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="17">
-        <v>8</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="48">
-        <v>36</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2</v>
-      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="16">
-        <v>2</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="20">
-        <v>2</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="17">
-        <v>2</v>
-      </c>
-      <c r="K20" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="48">
-        <v>8</v>
-      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="48"/>
+      <c r="A22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="F23" s="16"/>
       <c r="G23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="H23" s="20"/>
       <c r="I23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="48"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="48"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="48"/>
+      <c r="B25" s="3">
+        <v>42670</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="16">
+        <v>2</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="20">
+        <v>2</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="17">
+        <v>2</v>
+      </c>
+      <c r="K25" s="41"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="48"/>
+      <c r="C26" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="20">
+        <v>1</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="17">
+        <v>1</v>
+      </c>
+      <c r="K26" s="41"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="48"/>
+      <c r="C27" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="16">
+        <v>2</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="20">
+        <v>2</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="17">
+        <v>2</v>
+      </c>
+      <c r="K27" s="41"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7">
-        <f>SUM(D6:D27)</f>
-        <v>41</v>
-      </c>
-      <c r="E28" s="7">
-        <f>SUM(E6:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <f>SUM(F6:F27)</f>
-        <v>41</v>
-      </c>
-      <c r="G28" s="7">
-        <f>SUM(G6:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <f>SUM(H6:H27)</f>
-        <v>41</v>
-      </c>
-      <c r="I28" s="7">
-        <f>SUM(I6:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="7">
-        <f>SUM(J6:J27)</f>
-        <v>41</v>
-      </c>
-      <c r="K28" s="45">
-        <f>SUM(K6:K27)</f>
-        <v>0</v>
-      </c>
+      <c r="C28" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="20">
+        <v>1</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="17">
+        <v>1</v>
+      </c>
+      <c r="K28" s="41"/>
       <c r="L28" s="45">
-        <f>SUM(L6:L27)</f>
-        <v>168</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3">
-        <v>42674</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>29</v>
+      <c r="A29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="D29" s="8">
-        <v>8</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E29" s="8"/>
       <c r="F29" s="16">
-        <v>8</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G29" s="16"/>
       <c r="H29" s="20">
-        <v>8</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" s="20"/>
       <c r="J29" s="17">
-        <v>8</v>
-      </c>
-      <c r="K29" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="48">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K29" s="41"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="8" t="s">
-        <v>10</v>
+      <c r="C30" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="48"/>
+      <c r="F30" s="16">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="20">
+        <v>1</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="17">
+        <v>1</v>
+      </c>
+      <c r="K30" s="41"/>
+      <c r="L30" s="45">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
-      <c r="B31" s="3">
-        <v>42675</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="8">
-        <v>8</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="16">
-        <v>8</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="20">
-        <v>8</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="17">
-        <v>8</v>
-      </c>
-      <c r="K31" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="48">
-        <v>32</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="8" t="s">
-        <v>10</v>
+      <c r="B32" s="3">
+        <v>42671</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="8">
+        <v>3</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="F32" s="16"/>
       <c r="G32" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="H32" s="20"/>
       <c r="I32" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="48"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="45">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
-      <c r="B33" s="3">
-        <v>42676</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="8">
-        <v>3</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="20">
-        <v>3</v>
-      </c>
+      <c r="H33" s="20"/>
       <c r="I33" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="17">
-        <v>3</v>
-      </c>
-      <c r="K33" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="48">
-        <v>12</v>
+      <c r="J33" s="17"/>
+      <c r="K33" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="45">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="49" t="s">
-        <v>31</v>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="16">
-        <v>2</v>
+      <c r="F34" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="20">
-        <v>2</v>
-      </c>
+      <c r="H34" s="20"/>
       <c r="I34" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="17">
-        <v>2</v>
-      </c>
-      <c r="K34" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="48">
-        <v>8</v>
-      </c>
+      <c r="J34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="8">
-        <v>3</v>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="16">
-        <v>3</v>
+      <c r="F35" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H35" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J35" s="17">
-        <v>3</v>
-      </c>
-      <c r="K35" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="48">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>10</v>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="16">
+        <v>1</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>10</v>
+      <c r="H36" s="20">
+        <v>1</v>
       </c>
       <c r="I36" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="48"/>
+      <c r="J36" s="17">
+        <v>1</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="8">
+        <v>2</v>
+      </c>
       <c r="E37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="16">
+        <v>2</v>
+      </c>
       <c r="G37" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" s="48"/>
+      <c r="H37" s="20">
+        <v>2</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="17">
+        <v>2</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="45"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="3"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
         <v>10</v>
       </c>
@@ -1956,34 +1825,48 @@
       <c r="J38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K38" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="48"/>
+      <c r="K38" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
+      <c r="A39" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="16"/>
+      <c r="C39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="G39" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="I39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="48"/>
+      <c r="J39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="45"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="8" t="s">
         <v>10</v>
@@ -2006,118 +1889,108 @@
       <c r="J40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K40" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" s="48"/>
+      <c r="K40" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="45"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="48"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" ref="D41:L41" si="0">SUM(D6:D40)</f>
+        <v>40</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K41" s="42">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="L41" s="42">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="8" t="s">
-        <v>10</v>
+      <c r="A42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="3">
+        <v>42674</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="8">
+        <v>8</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>10</v>
+      <c r="F42" s="16">
+        <v>8</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="20" t="s">
-        <v>10</v>
+      <c r="H42" s="20">
+        <v>8</v>
       </c>
       <c r="I42" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="48"/>
+      <c r="J42" s="17">
+        <v>8</v>
+      </c>
+      <c r="K42" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="45">
+        <v>32</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="7">
-        <f t="shared" ref="D43:L43" si="0">SUM(D29:D41)</f>
-        <v>24</v>
-      </c>
-      <c r="E43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="G43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="I43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K43" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="45">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
+      <c r="A43" s="9"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A44" s="9"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="8" t="s">
@@ -2141,76 +2014,70 @@
       <c r="J44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="48"/>
+      <c r="K44" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="8" t="s">
-        <v>10</v>
+      <c r="B45" s="3">
+        <v>42675</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="8">
+        <v>7</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>10</v>
+      <c r="F45" s="16">
+        <v>7</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="20" t="s">
-        <v>10</v>
+      <c r="H45" s="20">
+        <v>7</v>
       </c>
       <c r="I45" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" s="48"/>
+      <c r="J45" s="17">
+        <v>7</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="45">
+        <v>32</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
-      <c r="B46" s="3">
-        <v>42681</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>32</v>
+      <c r="B46" s="3"/>
+      <c r="C46" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D46" s="8">
-        <v>8</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E46" s="8"/>
       <c r="F46" s="16">
-        <v>8</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G46" s="16"/>
       <c r="H46" s="20">
-        <v>8</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" s="20"/>
       <c r="J46" s="17">
-        <v>8</v>
-      </c>
-      <c r="K46" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="48">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K46" s="41"/>
+      <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
@@ -2228,93 +2095,93 @@
       <c r="G47" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="H47" s="20"/>
       <c r="I47" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="48"/>
+      <c r="K47" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="45"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="3">
-        <v>42682</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>32</v>
+        <v>42676</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="D48" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H48" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I48" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J48" s="17">
-        <v>5</v>
-      </c>
-      <c r="K48" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="48">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="K48" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="8" t="s">
-        <v>10</v>
+      <c r="C49" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="8">
+        <v>2</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="16" t="s">
-        <v>10</v>
+      <c r="F49" s="16">
+        <v>2</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="20" t="s">
-        <v>10</v>
+      <c r="H49" s="20">
+        <v>2</v>
       </c>
       <c r="I49" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" s="48"/>
+      <c r="J49" s="17">
+        <v>2</v>
+      </c>
+      <c r="K49" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>33</v>
+      <c r="B50" s="9"/>
+      <c r="C50" s="46" t="s">
+        <v>24</v>
       </c>
       <c r="D50" s="8">
         <v>3</v>
@@ -2337,16 +2204,15 @@
       <c r="J50" s="17">
         <v>3</v>
       </c>
-      <c r="K50" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" s="48">
+      <c r="K50" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="45">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
-      <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
         <v>10</v>
@@ -2369,337 +2235,605 @@
       <c r="J51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K51" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L51" s="48"/>
+      <c r="K51" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="F52" s="16"/>
       <c r="G52" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="48"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="45"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="45"/>
+    </row>
+    <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="17"/>
+      <c r="K54" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="45"/>
+    </row>
+    <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="45"/>
+    </row>
+    <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="45"/>
+    </row>
+    <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="45"/>
+    </row>
+    <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="7">
-        <f t="shared" ref="D53:L53" si="1">SUM(D44:D52)</f>
-        <v>16</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="D58" s="7">
+        <f t="shared" ref="D58:L58" si="1">SUM(D42:D56)</f>
+        <v>24</v>
+      </c>
+      <c r="E58" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F58" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G53" s="7">
+        <v>24</v>
+      </c>
+      <c r="G58" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H58" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I53" s="7">
+        <v>24</v>
+      </c>
+      <c r="I58" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J58" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K53" s="45">
+        <v>24</v>
+      </c>
+      <c r="K58" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L53" s="45">
+      <c r="L58" s="42">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="48"/>
-    </row>
-    <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="19">
-        <f>SUM(D53,D28,D43)</f>
-        <v>81</v>
-      </c>
-      <c r="E55" s="19">
-        <f t="shared" ref="E55:L55" si="2">SUM(E53,E28,E43)</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="18">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="G55" s="18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="45"/>
+    </row>
+    <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="45"/>
+    </row>
+    <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="3">
+        <v>42681</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="8">
+        <v>8</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="16">
+        <v>8</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="20">
+        <v>8</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" s="17">
+        <v>8</v>
+      </c>
+      <c r="K61" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="45"/>
+    </row>
+    <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="3">
+        <v>42682</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="8">
+        <v>5</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="16">
+        <v>5</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="20">
+        <v>5</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" s="17">
+        <v>5</v>
+      </c>
+      <c r="K63" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="45"/>
+    </row>
+    <row r="65" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="8">
+        <v>3</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="16">
+        <v>3</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="20">
+        <v>3</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J65" s="17">
+        <v>3</v>
+      </c>
+      <c r="K65" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="45"/>
+    </row>
+    <row r="67" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="45"/>
+    </row>
+    <row r="68" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" ref="D68:L68" si="2">SUM(D59:D67)</f>
+        <v>16</v>
+      </c>
+      <c r="E68" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H55" s="21">
+      <c r="F68" s="7">
         <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="I55" s="21">
+        <v>16</v>
+      </c>
+      <c r="G68" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J55" s="22">
+      <c r="H68" s="7">
         <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="K55" s="47">
+        <v>16</v>
+      </c>
+      <c r="I68" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L55" s="47">
+      <c r="J68" s="7">
         <f t="shared" si="2"/>
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-    </row>
-    <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-    </row>
-    <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-    </row>
-    <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-    </row>
-    <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-    </row>
-    <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-    </row>
-    <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-    </row>
-    <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-    </row>
-    <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-    </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-    </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-    </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-    </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-    </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-    </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-    </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="K68" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="42">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="45"/>
+    </row>
+    <row r="70" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="19">
+        <f>SUM(D68,D41,D58)</f>
+        <v>80</v>
+      </c>
+      <c r="E70" s="19">
+        <f t="shared" ref="E70:L70" si="3">SUM(E68,E41,E58)</f>
+        <v>17</v>
+      </c>
+      <c r="F70" s="18">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="G70" s="18">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H70" s="21">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="I70" s="21">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="J70" s="22">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="K70" s="44">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="L70" s="44">
+        <f t="shared" si="3"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -2712,7 +2846,7 @@
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -2725,7 +2859,7 @@
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -2738,7 +2872,7 @@
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -2751,7 +2885,7 @@
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -2764,7 +2898,7 @@
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -2777,7 +2911,7 @@
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -2790,7 +2924,7 @@
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -2803,7 +2937,7 @@
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -2816,7 +2950,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -3530,6 +3664,201 @@
       <c r="I134" s="15"/>
       <c r="J134" s="15"/>
       <c r="K134" s="15"/>
+    </row>
+    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+    </row>
+    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+    </row>
+    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+    </row>
+    <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+    </row>
+    <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+    </row>
+    <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+    </row>
+    <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+    </row>
+    <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+    </row>
+    <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+    </row>
+    <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+    </row>
+    <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+    </row>
+    <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+    </row>
+    <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+    </row>
+    <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+    </row>
+    <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Planning/Planning Project.xlsx
+++ b/Planning/Planning Project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuks\OneDrive\Documenten\HBO-ICT_jaar_2\THDE\Themadevices-groep_7\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuks\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="76">
   <si>
     <t xml:space="preserve">Planning en registratie van de uren </t>
   </si>
@@ -168,6 +167,87 @@
   </si>
   <si>
     <t>klassendiagram maken</t>
+  </si>
+  <si>
+    <t>ziek</t>
+  </si>
+  <si>
+    <t>review moment met begeleider</t>
+  </si>
+  <si>
+    <t>verslag afmaken</t>
+  </si>
+  <si>
+    <t>klassenlijst updaten</t>
+  </si>
+  <si>
+    <t>concurrency diagram updaten</t>
+  </si>
+  <si>
+    <t>takenlijst updaten</t>
+  </si>
+  <si>
+    <t>speaker class schrijven</t>
+  </si>
+  <si>
+    <t>OLED class schrijven</t>
+  </si>
+  <si>
+    <t>USB class schrijven</t>
+  </si>
+  <si>
+    <t>Transmitter class schrijven</t>
+  </si>
+  <si>
+    <t>receiver class schrijven</t>
+  </si>
+  <si>
+    <t>ID_Jumper class schrijven</t>
+  </si>
+  <si>
+    <t>keypad class schrijven</t>
+  </si>
+  <si>
+    <t>damage class schrijven</t>
+  </si>
+  <si>
+    <t>damage storage class schrijven</t>
+  </si>
+  <si>
+    <t>hitTask schrijven</t>
+  </si>
+  <si>
+    <t>setupController schrijven</t>
+  </si>
+  <si>
+    <t>OLED schrijven</t>
+  </si>
+  <si>
+    <t>transmitter schrijven</t>
+  </si>
+  <si>
+    <t>Damage storage en class schrijven</t>
+  </si>
+  <si>
+    <t>transmitter</t>
+  </si>
+  <si>
+    <t>github managen</t>
+  </si>
+  <si>
+    <t>gunlogic schrijven</t>
+  </si>
+  <si>
+    <t>keyPad schrijven</t>
+  </si>
+  <si>
+    <t>receiver schrijven</t>
+  </si>
+  <si>
+    <t>speaker schrijven</t>
+  </si>
+  <si>
+    <t>transfer controller en aanverwanten schrijven</t>
   </si>
 </sst>
 </file>
@@ -428,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +613,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="C86" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -929,22 +1010,22 @@
       <c r="A3" s="25"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="33" t="s">
         <v>3</v>
       </c>
@@ -1315,26 +1396,26 @@
       <c r="D17" s="8">
         <v>4</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>10</v>
+      <c r="E17" s="8">
+        <v>5</v>
       </c>
       <c r="F17" s="16">
         <v>4</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>10</v>
+      <c r="G17" s="16">
+        <v>5</v>
       </c>
       <c r="H17" s="20">
         <v>4</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>10</v>
+      <c r="I17" s="20">
+        <v>5</v>
       </c>
       <c r="J17" s="17">
         <v>4</v>
       </c>
-      <c r="K17" s="41" t="s">
-        <v>10</v>
+      <c r="K17" s="41">
+        <v>5</v>
       </c>
       <c r="L17" s="45">
         <v>16</v>
@@ -1349,19 +1430,27 @@
       <c r="D18" s="8">
         <v>4</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
       <c r="F18" s="16">
         <v>4</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="16">
+        <v>3</v>
+      </c>
       <c r="H18" s="20">
         <v>4</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="20">
+        <v>3</v>
+      </c>
       <c r="J18" s="17">
         <v>4</v>
       </c>
-      <c r="K18" s="41"/>
+      <c r="K18" s="41">
+        <v>3</v>
+      </c>
       <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1430,21 +1519,13 @@
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="G23" s="16"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="I23" s="20"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="41" t="s">
-        <v>10</v>
-      </c>
+      <c r="K23" s="41"/>
       <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1471,19 +1552,27 @@
       <c r="D25" s="8">
         <v>2</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
       <c r="F25" s="16">
         <v>2</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="16">
+        <v>4</v>
+      </c>
       <c r="H25" s="20">
         <v>2</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="J25" s="17">
         <v>2</v>
       </c>
-      <c r="K25" s="41"/>
+      <c r="K25" s="41">
+        <v>0</v>
+      </c>
       <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1495,19 +1584,27 @@
       <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8">
+        <v>2</v>
+      </c>
       <c r="F26" s="16">
         <v>1</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
       <c r="H26" s="20">
         <v>1</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="20">
+        <v>1</v>
+      </c>
       <c r="J26" s="17">
         <v>1</v>
       </c>
-      <c r="K26" s="41"/>
+      <c r="K26" s="41">
+        <v>1</v>
+      </c>
       <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1519,19 +1616,27 @@
       <c r="D27" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="8">
+        <v>3</v>
+      </c>
       <c r="F27" s="16">
         <v>2</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="16">
+        <v>2</v>
+      </c>
       <c r="H27" s="20">
         <v>2</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="20">
+        <v>2</v>
+      </c>
       <c r="J27" s="17">
         <v>2</v>
       </c>
-      <c r="K27" s="41"/>
+      <c r="K27" s="41">
+        <v>3</v>
+      </c>
       <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,19 +1646,27 @@
       <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
       <c r="F28" s="16">
         <v>1</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
       <c r="H28" s="20">
         <v>1</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="J28" s="17">
         <v>1</v>
       </c>
-      <c r="K28" s="41"/>
+      <c r="K28" s="41">
+        <v>1</v>
+      </c>
       <c r="L28" s="45">
         <v>4</v>
       </c>
@@ -1567,19 +1680,27 @@
       <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
       <c r="F29" s="16">
         <v>1</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
       <c r="H29" s="20">
         <v>1</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="J29" s="17">
         <v>1</v>
       </c>
-      <c r="K29" s="41"/>
+      <c r="K29" s="41">
+        <v>1</v>
+      </c>
       <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1591,21 +1712,27 @@
       <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>10</v>
+      <c r="E30" s="8">
+        <v>1</v>
       </c>
       <c r="F30" s="16">
         <v>1</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
       <c r="H30" s="20">
         <v>1</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="J30" s="17">
         <v>1</v>
       </c>
-      <c r="K30" s="41"/>
+      <c r="K30" s="41">
+        <v>2</v>
+      </c>
       <c r="L30" s="45">
         <v>28</v>
       </c>
@@ -1635,20 +1762,24 @@
       <c r="D32" s="8">
         <v>3</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16" t="s">
-        <v>10</v>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <v>1</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="41" t="s">
-        <v>10</v>
+      <c r="J32" s="17">
+        <v>0</v>
+      </c>
+      <c r="K32" s="41">
+        <v>2</v>
       </c>
       <c r="L32" s="45">
         <v>36</v>
@@ -1661,20 +1792,26 @@
         <v>44</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
       <c r="F33" s="16">
         <v>4</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="41" t="s">
-        <v>10</v>
+      <c r="G33" s="16">
+        <v>3</v>
+      </c>
+      <c r="H33" s="20">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20">
+        <v>2</v>
+      </c>
+      <c r="J33" s="17">
+        <v>0</v>
+      </c>
+      <c r="K33" s="41">
+        <v>2</v>
       </c>
       <c r="L33" s="45">
         <v>8</v>
@@ -1689,24 +1826,26 @@
       <c r="D34" s="8">
         <v>1</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>10</v>
+      <c r="E34" s="8">
+        <v>2</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1</v>
+      </c>
+      <c r="G34" s="16">
+        <v>2</v>
+      </c>
+      <c r="H34" s="20">
+        <v>1</v>
+      </c>
+      <c r="I34" s="20">
+        <v>1</v>
+      </c>
+      <c r="J34" s="17">
+        <v>1</v>
+      </c>
+      <c r="K34" s="41">
+        <v>2</v>
       </c>
       <c r="L34" s="45"/>
     </row>
@@ -1732,13 +1871,13 @@
         <v>4</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="J35" s="17">
         <v>4</v>
       </c>
-      <c r="K35" s="41" t="s">
-        <v>10</v>
+      <c r="K35" s="41">
+        <v>1</v>
       </c>
       <c r="L35" s="45"/>
     </row>
@@ -1751,18 +1890,20 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="8">
+        <v>2</v>
+      </c>
       <c r="F36" s="16">
         <v>1</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>10</v>
+      <c r="G36" s="16">
+        <v>1</v>
       </c>
       <c r="H36" s="20">
         <v>1</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="J36" s="17">
         <v>1</v>
@@ -1779,20 +1920,20 @@
       <c r="D37" s="8">
         <v>2</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>10</v>
+      <c r="E37" s="8">
+        <v>1</v>
       </c>
       <c r="F37" s="16">
         <v>2</v>
       </c>
-      <c r="G37" s="16" t="s">
-        <v>10</v>
+      <c r="G37" s="16">
+        <v>1</v>
       </c>
       <c r="H37" s="20">
         <v>2</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="J37" s="17">
         <v>2</v>
@@ -1906,31 +2047,31 @@
       </c>
       <c r="E41" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K41" s="42">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L41" s="42">
         <f t="shared" si="0"/>
@@ -1950,26 +2091,26 @@
       <c r="D42" s="8">
         <v>8</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>10</v>
+      <c r="E42" s="8">
+        <v>0</v>
       </c>
       <c r="F42" s="16">
         <v>8</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H42" s="20">
         <v>8</v>
       </c>
-      <c r="I42" s="20" t="s">
-        <v>10</v>
+      <c r="I42" s="20">
+        <v>0</v>
       </c>
       <c r="J42" s="17">
         <v>8</v>
       </c>
-      <c r="K42" s="41" t="s">
-        <v>10</v>
+      <c r="K42" s="41">
+        <v>0</v>
       </c>
       <c r="L42" s="45">
         <v>32</v>
@@ -1978,241 +2119,262 @@
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="41"/>
+      <c r="C43" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="20">
+        <v>0</v>
+      </c>
+      <c r="I43" s="20">
+        <v>1</v>
+      </c>
+      <c r="J43" s="17">
+        <v>0</v>
+      </c>
+      <c r="K43" s="41">
+        <v>1</v>
+      </c>
       <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>10</v>
+      <c r="C44" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>7</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="41" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="H44" s="20">
+        <v>0</v>
+      </c>
+      <c r="I44" s="20">
+        <v>6</v>
+      </c>
+      <c r="J44" s="17">
+        <v>0</v>
+      </c>
+      <c r="K44" s="41">
+        <v>6</v>
       </c>
       <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
-      <c r="B45" s="3">
-        <v>42675</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="8">
-        <v>7</v>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="16">
-        <v>7</v>
+      <c r="F45" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="20">
-        <v>7</v>
+      <c r="H45" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="I45" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="17">
-        <v>7</v>
-      </c>
-      <c r="K45" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" s="45">
-        <v>32</v>
-      </c>
+      <c r="J45" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="41"/>
+      <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="3">
+        <v>42675</v>
+      </c>
       <c r="C46" s="46" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D46" s="8">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0</v>
+      </c>
       <c r="F46" s="16">
-        <v>1</v>
-      </c>
-      <c r="G46" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="H46" s="20">
-        <v>1</v>
-      </c>
-      <c r="I46" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="I46" s="20">
+        <v>0</v>
+      </c>
       <c r="J46" s="17">
-        <v>1</v>
-      </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="45"/>
+        <v>7</v>
+      </c>
+      <c r="K46" s="41">
+        <v>0</v>
+      </c>
+      <c r="L46" s="45">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>10</v>
+      <c r="B47" s="3"/>
+      <c r="C47" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16">
+        <v>1</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="41" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="H47" s="20">
+        <v>1</v>
+      </c>
+      <c r="I47" s="20">
+        <v>0</v>
+      </c>
+      <c r="J47" s="17">
+        <v>1</v>
+      </c>
+      <c r="K47" s="41">
+        <v>0</v>
       </c>
       <c r="L47" s="45"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
-      <c r="B48" s="3">
-        <v>42676</v>
-      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="46" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D48" s="8">
-        <v>3</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E48" s="8">
+        <v>4</v>
       </c>
       <c r="F48" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H48" s="20">
-        <v>3</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I48" s="20">
+        <v>4</v>
       </c>
       <c r="J48" s="17">
-        <v>3</v>
-      </c>
-      <c r="K48" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="45">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K48" s="41">
+        <v>4</v>
+      </c>
+      <c r="L48" s="45"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="46" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8">
         <v>2</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="F49" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H49" s="20">
-        <v>2</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I49" s="20">
+        <v>1</v>
       </c>
       <c r="J49" s="17">
-        <v>2</v>
-      </c>
-      <c r="K49" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" s="45">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K49" s="41">
+        <v>1</v>
+      </c>
+      <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="46" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D50" s="8">
-        <v>3</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
+        <v>2</v>
       </c>
       <c r="F50" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H50" s="20">
-        <v>3</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I50" s="20">
+        <v>2</v>
       </c>
       <c r="J50" s="17">
-        <v>3</v>
-      </c>
-      <c r="K50" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" s="45">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K50" s="41">
+        <v>2</v>
+      </c>
+      <c r="L50" s="45"/>
     </row>
     <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
         <v>10</v>
@@ -2226,9 +2388,7 @@
       <c r="G51" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="H51" s="20"/>
       <c r="I51" s="20" t="s">
         <v>10</v>
       </c>
@@ -2241,90 +2401,125 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="16"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="3">
+        <v>42676</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
       <c r="G52" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="45"/>
+        <v>49</v>
+      </c>
+      <c r="H52" s="20">
+        <v>0</v>
+      </c>
+      <c r="I52" s="20">
+        <v>0</v>
+      </c>
+      <c r="J52" s="17">
+        <v>0</v>
+      </c>
+      <c r="K52" s="41">
+        <v>0</v>
+      </c>
+      <c r="L52" s="45">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>10</v>
+      <c r="C53" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="45"/>
+        <v>49</v>
+      </c>
+      <c r="H53" s="20">
+        <v>0</v>
+      </c>
+      <c r="I53" s="20">
+        <v>0</v>
+      </c>
+      <c r="J53" s="17">
+        <v>0</v>
+      </c>
+      <c r="K53" s="41">
+        <v>0</v>
+      </c>
+      <c r="L53" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="16"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0</v>
+      </c>
       <c r="G54" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" s="17"/>
-      <c r="K54" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="45"/>
+        <v>49</v>
+      </c>
+      <c r="H54" s="20">
+        <v>0</v>
+      </c>
+      <c r="I54" s="20">
+        <v>0</v>
+      </c>
+      <c r="J54" s="17">
+        <v>0</v>
+      </c>
+      <c r="K54" s="41">
+        <v>0</v>
+      </c>
+      <c r="L54" s="45">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>10</v>
+      <c r="C55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2</v>
+      </c>
+      <c r="E55" s="8">
+        <v>4</v>
       </c>
       <c r="F55" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H55" s="20" t="s">
         <v>10</v>
@@ -2341,39 +2536,33 @@
       <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A56" s="34"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="F56" s="16"/>
       <c r="G56" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="41" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="41">
+        <v>5</v>
       </c>
       <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D57" s="8" t="s">
         <v>10</v>
       </c>
@@ -2384,7 +2573,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H57" s="20" t="s">
         <v>10</v>
@@ -2401,54 +2590,37 @@
       <c r="L57" s="45"/>
     </row>
     <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="7">
-        <f t="shared" ref="D58:L58" si="1">SUM(D42:D56)</f>
-        <v>24</v>
-      </c>
-      <c r="E58" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="G58" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I58" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="K58" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="42">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
+      <c r="A58" s="9"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="8">
+        <v>3</v>
+      </c>
+      <c r="E58" s="8">
+        <v>4</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="17"/>
+      <c r="K58" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="45"/>
     </row>
     <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="D59" s="8" t="s">
         <v>10</v>
       </c>
@@ -2459,7 +2631,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H59" s="20" t="s">
         <v>10</v>
@@ -2477,8 +2649,10 @@
     </row>
     <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D60" s="8" t="s">
         <v>10</v>
       </c>
@@ -2489,7 +2663,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H60" s="20" t="s">
         <v>10</v>
@@ -2507,723 +2681,898 @@
     </row>
     <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
-      <c r="B61" s="3">
-        <v>42681</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>24</v>
+      <c r="B61" s="48"/>
+      <c r="C61" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D61" s="8">
-        <v>8</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="16">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="20">
-        <v>8</v>
-      </c>
-      <c r="I61" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J61" s="17">
-        <v>8</v>
-      </c>
-      <c r="K61" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="45">
-        <v>32</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="41">
+        <v>3</v>
+      </c>
+      <c r="L61" s="45"/>
     </row>
     <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="B62" s="48"/>
+      <c r="C62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J62" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="41" t="s">
-        <v>10</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20">
+        <v>3</v>
+      </c>
+      <c r="J62" s="17"/>
+      <c r="K62" s="41"/>
       <c r="L62" s="45"/>
     </row>
     <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
-      <c r="B63" s="3">
-        <v>42682</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="B63" s="9"/>
+      <c r="C63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="20">
         <v>5</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="16">
-        <v>5</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="20">
-        <v>5</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J63" s="17">
-        <v>5</v>
+      <c r="J63" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="K63" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L63" s="45">
-        <v>20</v>
-      </c>
+      <c r="L63" s="45"/>
     </row>
     <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J64" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L64" s="45"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="50"/>
     </row>
     <row r="65" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
-      <c r="B65" s="48" t="s">
-        <v>26</v>
+      <c r="B65" s="3">
+        <v>42677</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="8">
-        <v>3</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="16">
-        <v>3</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="20">
-        <v>3</v>
-      </c>
-      <c r="I65" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J65" s="17">
-        <v>3</v>
-      </c>
-      <c r="K65" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L65" s="45">
-        <v>12</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8">
+        <v>6</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="50"/>
     </row>
     <row r="66" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J66" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L66" s="45"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20">
+        <v>6</v>
+      </c>
+      <c r="J66" s="17"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="50"/>
     </row>
     <row r="67" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K67" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L67" s="45"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="41">
+        <v>5</v>
+      </c>
+      <c r="L67" s="50"/>
     </row>
     <row r="68" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6" t="s">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="41">
+        <v>1</v>
+      </c>
+      <c r="L68" s="50"/>
+    </row>
+    <row r="69" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="50"/>
+    </row>
+    <row r="70" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16">
+        <v>6</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="50"/>
+    </row>
+    <row r="71" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="50"/>
+    </row>
+    <row r="72" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="50"/>
+    </row>
+    <row r="73" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="50"/>
+    </row>
+    <row r="74" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="50"/>
+    </row>
+    <row r="75" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="50"/>
+    </row>
+    <row r="76" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9"/>
+      <c r="B76" s="3">
+        <v>42678</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8">
+        <v>6</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="50"/>
+    </row>
+    <row r="77" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="41">
+        <v>6</v>
+      </c>
+      <c r="L77" s="50"/>
+    </row>
+    <row r="78" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20">
+        <v>8</v>
+      </c>
+      <c r="J78" s="17"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="50"/>
+    </row>
+    <row r="79" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16">
+        <v>6</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="50"/>
+    </row>
+    <row r="80" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="50"/>
+    </row>
+    <row r="81" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9"/>
+      <c r="B81" s="3">
+        <v>42679</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="50"/>
+    </row>
+    <row r="82" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="50"/>
+    </row>
+    <row r="83" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="50"/>
+    </row>
+    <row r="84" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="7">
-        <f t="shared" ref="D68:L68" si="2">SUM(D59:D67)</f>
+      <c r="D84" s="7">
+        <f t="shared" ref="D84:L84" si="1">SUM(D42:D60)</f>
+        <v>21</v>
+      </c>
+      <c r="E84" s="7">
+        <f>SUM(E42:E83)</f>
+        <v>36</v>
+      </c>
+      <c r="F84" s="7">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E68" s="7">
+      <c r="G84" s="7">
+        <f>SUM(G42:G82)</f>
+        <v>12</v>
+      </c>
+      <c r="H84" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I84" s="7">
+        <f>SUM(I42:I82)</f>
+        <v>36</v>
+      </c>
+      <c r="J84" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K84" s="42">
+        <f>SUM(K42:K82)</f>
+        <v>34</v>
+      </c>
+      <c r="L84" s="42">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K85" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" s="45"/>
+    </row>
+    <row r="86" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="9"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K86" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="45"/>
+    </row>
+    <row r="87" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9"/>
+      <c r="B87" s="3">
+        <v>42681</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="8">
+        <v>8</v>
+      </c>
+      <c r="E87" s="8">
+        <v>10</v>
+      </c>
+      <c r="F87" s="16">
+        <v>8</v>
+      </c>
+      <c r="G87" s="16">
+        <v>10</v>
+      </c>
+      <c r="H87" s="20">
+        <v>8</v>
+      </c>
+      <c r="I87" s="20">
+        <v>10</v>
+      </c>
+      <c r="J87" s="17">
+        <v>8</v>
+      </c>
+      <c r="K87" s="41">
+        <v>10</v>
+      </c>
+      <c r="L87" s="45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="41">
+        <v>8</v>
+      </c>
+      <c r="L88" s="45"/>
+    </row>
+    <row r="89" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="45"/>
+    </row>
+    <row r="90" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="9"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="45"/>
+    </row>
+    <row r="91" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="45"/>
+    </row>
+    <row r="92" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K92" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="45"/>
+    </row>
+    <row r="93" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="9"/>
+      <c r="B93" s="3">
+        <v>42682</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="8">
+        <v>5</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="16">
+        <v>5</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="20">
+        <v>5</v>
+      </c>
+      <c r="I93" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J93" s="17">
+        <v>5</v>
+      </c>
+      <c r="K93" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="45"/>
+    </row>
+    <row r="95" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="9"/>
+      <c r="B95" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="8">
+        <v>3</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="16">
+        <v>3</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="20">
+        <v>3</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J95" s="17">
+        <v>3</v>
+      </c>
+      <c r="K95" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="9"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K96" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L96" s="45"/>
+    </row>
+    <row r="97" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K97" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="45"/>
+    </row>
+    <row r="98" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="7">
+        <f t="shared" ref="D98:L98" si="2">SUM(D85:D97)</f>
+        <v>16</v>
+      </c>
+      <c r="E98" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="7">
+        <v>10</v>
+      </c>
+      <c r="F98" s="7">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G98" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="7">
+        <v>10</v>
+      </c>
+      <c r="H98" s="7">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I98" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="7">
+        <v>10</v>
+      </c>
+      <c r="J98" s="7">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="K68" s="42">
+      <c r="K98" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="42">
+        <v>18</v>
+      </c>
+      <c r="L98" s="42">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="45"/>
-    </row>
-    <row r="70" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14" t="s">
+    <row r="99" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="45"/>
+    </row>
+    <row r="100" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="12"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="19">
-        <f>SUM(D68,D41,D58)</f>
-        <v>80</v>
-      </c>
-      <c r="E70" s="19">
-        <f t="shared" ref="E70:L70" si="3">SUM(E68,E41,E58)</f>
-        <v>17</v>
-      </c>
-      <c r="F70" s="18">
-        <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="G70" s="18">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="H70" s="21">
-        <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="I70" s="21">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="J70" s="22">
-        <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="K70" s="44">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="L70" s="44">
-        <f t="shared" si="3"/>
+      <c r="D100" s="19">
+        <f>SUM(D98,D41,D84)</f>
+        <v>77</v>
+      </c>
+      <c r="E100" s="19">
+        <f>SUM(E98,E41,E84)</f>
+        <v>86</v>
+      </c>
+      <c r="F100" s="18">
+        <f>SUM(F98,F41,F84)</f>
+        <v>72</v>
+      </c>
+      <c r="G100" s="18">
+        <f>SUM(G98,G41,G84)</f>
+        <v>63</v>
+      </c>
+      <c r="H100" s="21">
+        <f>SUM(H98,H41,H84)</f>
+        <v>72</v>
+      </c>
+      <c r="I100" s="21">
+        <f>SUM(I98,I41,I84)</f>
+        <v>77</v>
+      </c>
+      <c r="J100" s="22">
+        <f>SUM(J98,J41,J84)</f>
+        <v>72</v>
+      </c>
+      <c r="K100" s="44">
+        <f>SUM(K98,K41,K84)</f>
+        <v>92</v>
+      </c>
+      <c r="L100" s="44">
+        <f>SUM(L98,L41,L84)</f>
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-    </row>
-    <row r="72" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-    </row>
-    <row r="73" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-    </row>
-    <row r="74" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-    </row>
-    <row r="75" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-    </row>
-    <row r="76" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-    </row>
-    <row r="77" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-    </row>
-    <row r="78" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-    </row>
-    <row r="79" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-    </row>
-    <row r="80" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-    </row>
-    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-    </row>
-    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-    </row>
-    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-    </row>
-    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-    </row>
-    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-    </row>
-    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-    </row>
-    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-    </row>
-    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-    </row>
-    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-    </row>
-    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-    </row>
-    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-    </row>
-    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-    </row>
-    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-    </row>
-    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-    </row>
-    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-    </row>
-    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-    </row>
-    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-    </row>
-    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-    </row>
-    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-    </row>
-    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-    </row>
-    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -3236,7 +3585,7 @@
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -3249,7 +3598,7 @@
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -3262,7 +3611,7 @@
       <c r="J103" s="15"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -3275,7 +3624,7 @@
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -3288,7 +3637,7 @@
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -3301,7 +3650,7 @@
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -3314,7 +3663,7 @@
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -3327,7 +3676,7 @@
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
     </row>
-    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -3340,7 +3689,7 @@
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
     </row>
-    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -3353,7 +3702,7 @@
       <c r="J110" s="15"/>
       <c r="K110" s="15"/>
     </row>
-    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -3366,7 +3715,7 @@
       <c r="J111" s="15"/>
       <c r="K111" s="15"/>
     </row>
-    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -3860,6 +4209,396 @@
       <c r="J149" s="15"/>
       <c r="K149" s="15"/>
     </row>
+    <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+    </row>
+    <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+    </row>
+    <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+    </row>
+    <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+    </row>
+    <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+    </row>
+    <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+    </row>
+    <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+    </row>
+    <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="15"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+    </row>
+    <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+    </row>
+    <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="15"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+    </row>
+    <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="15"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+    </row>
+    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="15"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+    </row>
+    <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="15"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+    </row>
+    <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="15"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+    </row>
+    <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="15"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+    </row>
+    <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="15"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+    </row>
+    <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="15"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+    </row>
+    <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="15"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+    </row>
+    <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="15"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+    </row>
+    <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="15"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+    </row>
+    <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="15"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="15"/>
+    </row>
+    <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="15"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+    </row>
+    <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="15"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+    </row>
+    <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="15"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+    </row>
+    <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="15"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="15"/>
+    </row>
+    <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="15"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+    </row>
+    <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="15"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="15"/>
+    </row>
+    <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="15"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="15"/>
+    </row>
+    <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="15"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="15"/>
+    </row>
+    <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="15"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D3:E3"/>
@@ -3869,42 +4608,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="6" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4070,15 +4773,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
@@ -4086,6 +4780,15 @@
     <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4107,14 +4810,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD477B0-7FDC-4B12-8DED-561A832309BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDA2D9-0F29-4761-875B-F7795DA98BB3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4128,4 +4823,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD477B0-7FDC-4B12-8DED-561A832309BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Project.xlsx
+++ b/Planning/Planning Project.xlsx
@@ -1,36 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuks\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rica\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="90">
   <si>
     <t xml:space="preserve">Planning en registratie van de uren </t>
   </si>
   <si>
     <t>Themaopdracht Devices</t>
-  </si>
-  <si>
-    <t>&lt;= invullen</t>
-  </si>
-  <si>
-    <t>&lt;=  namen teamleden invullen</t>
   </si>
   <si>
     <t>lesweek</t>
@@ -97,15 +91,6 @@
     <t>Testen &amp; Debuggen</t>
   </si>
   <si>
-    <t>Github managen</t>
-  </si>
-  <si>
-    <t>(over alle weken)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Objectenlijst opstellen</t>
   </si>
   <si>
@@ -229,9 +214,6 @@
     <t>Damage storage en class schrijven</t>
   </si>
   <si>
-    <t>transmitter</t>
-  </si>
-  <si>
     <t>github managen</t>
   </si>
   <si>
@@ -248,12 +230,72 @@
   </si>
   <si>
     <t>transfer controller en aanverwanten schrijven</t>
+  </si>
+  <si>
+    <t>Doxygen documentatie schrijven</t>
+  </si>
+  <si>
+    <t>Doxygen Documentatie schrijven</t>
+  </si>
+  <si>
+    <t>Speaker en SpeakerController</t>
+  </si>
+  <si>
+    <t>Damage + DamageStorage schrijven</t>
+  </si>
+  <si>
+    <t>MessageLogic schrijven</t>
+  </si>
+  <si>
+    <t>transmitter en TransmitterController</t>
+  </si>
+  <si>
+    <t>Transfercontroller</t>
+  </si>
+  <si>
+    <t>ShootController schrijven</t>
+  </si>
+  <si>
+    <t>Transmitter + TransmitterController schrijven</t>
+  </si>
+  <si>
+    <t>OLEDController schrijven</t>
+  </si>
+  <si>
+    <t>Player Entity schrijven</t>
+  </si>
+  <si>
+    <t>HitController schrijven</t>
+  </si>
+  <si>
+    <t>Doxygen documentatie schrijven en stijl fixen</t>
+  </si>
+  <si>
+    <t>SetupController Schrijven</t>
+  </si>
+  <si>
+    <t>Gamemaster systeem maken</t>
+  </si>
+  <si>
+    <t>SetupController schrijven</t>
+  </si>
+  <si>
+    <t>Klassendiagram updaten</t>
+  </si>
+  <si>
+    <t>Planning updaten</t>
+  </si>
+  <si>
+    <t>Onderzoeksrapport proofreaden</t>
+  </si>
+  <si>
+    <t>Team 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -305,7 +347,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,8 +446,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
@@ -508,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +626,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,14 +653,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,6 +666,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -716,23 +776,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -768,23 +811,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -961,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L179"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C86" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -980,12 +1006,14 @@
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
@@ -994,41 +1022,38 @@
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>2</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E2" s="32"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="1:12" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="33" t="s">
-        <v>3</v>
-      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1043,53 +1068,51 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:12" s="38" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="D5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="E5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="45" t="s">
-        <v>14</v>
-      </c>
+      <c r="F5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>42667</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>28</v>
+      <c r="C6" s="44" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="8">
         <v>3</v>
@@ -1112,18 +1135,16 @@
       <c r="J6" s="17">
         <v>3</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="40">
         <v>4</v>
       </c>
-      <c r="L6" s="45">
-        <v>12</v>
-      </c>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="46" t="s">
-        <v>29</v>
+      <c r="C7" s="44" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
@@ -1146,51 +1167,47 @@
       <c r="J7" s="17">
         <v>4</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="40">
         <v>4</v>
       </c>
-      <c r="L7" s="45">
-        <v>16</v>
-      </c>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="46" t="s">
-        <v>15</v>
+      <c r="C8" s="44" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="16">
-        <v>0</v>
+      <c r="G8" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="H8" s="20">
         <v>1</v>
       </c>
-      <c r="I8" s="20">
-        <v>0</v>
+      <c r="I8" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="J8" s="17">
         <v>1</v>
       </c>
-      <c r="K8" s="41">
-        <v>0</v>
-      </c>
-      <c r="L8" s="45">
-        <v>4</v>
-      </c>
+      <c r="K8" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="55"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="46"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="16"/>
@@ -1198,48 +1215,48 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="45"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="3">
         <v>42668</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
+      <c r="C10" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
-        <v>0</v>
+      <c r="F10" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G10" s="16">
         <v>2</v>
       </c>
-      <c r="H10" s="20">
-        <v>0</v>
+      <c r="H10" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="I10" s="20">
         <v>2</v>
       </c>
-      <c r="J10" s="17">
-        <v>0</v>
-      </c>
-      <c r="K10" s="41">
+      <c r="J10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="40">
         <v>2</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="46" t="s">
-        <v>15</v>
+      <c r="C11" s="44" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
@@ -1262,18 +1279,16 @@
       <c r="J11" s="17">
         <v>2</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="40">
         <v>5</v>
       </c>
-      <c r="L11" s="45">
-        <v>8</v>
-      </c>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="46" t="s">
-        <v>16</v>
+      <c r="C12" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="8">
         <v>4</v>
@@ -1296,52 +1311,48 @@
       <c r="J12" s="17">
         <v>4</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="40">
         <v>2</v>
       </c>
-      <c r="L12" s="45">
-        <v>16</v>
-      </c>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="46" t="s">
-        <v>30</v>
+      <c r="C13" s="44" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="8">
-        <v>0</v>
+      <c r="E13" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="16">
         <v>2</v>
       </c>
-      <c r="G13" s="16">
-        <v>0</v>
+      <c r="G13" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="H13" s="20">
         <v>2</v>
       </c>
-      <c r="I13" s="20">
-        <v>0</v>
+      <c r="I13" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="J13" s="17">
         <v>2</v>
       </c>
-      <c r="K13" s="41">
-        <v>0</v>
-      </c>
-      <c r="L13" s="45">
-        <v>8</v>
-      </c>
+      <c r="K13" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="46" t="s">
-        <v>40</v>
+      <c r="C14" s="44" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -1349,18 +1360,30 @@
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="45"/>
+      <c r="F14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="46"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="16"/>
@@ -1368,109 +1391,128 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="45"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="45"/>
+      <c r="B16" s="3">
+        <v>42669</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8">
+        <v>5</v>
+      </c>
+      <c r="F16" s="16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="16">
+        <v>5</v>
+      </c>
+      <c r="H16" s="20">
+        <v>4</v>
+      </c>
+      <c r="I16" s="20">
+        <v>5</v>
+      </c>
+      <c r="J16" s="17">
+        <v>4</v>
+      </c>
+      <c r="K16" s="40">
+        <v>5</v>
+      </c>
+      <c r="L16" s="55"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="3">
-        <v>42669</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>30</v>
+      <c r="B17" s="3"/>
+      <c r="C17" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="8">
         <v>4</v>
       </c>
       <c r="E17" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="16">
         <v>4</v>
       </c>
       <c r="G17" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17" s="20">
         <v>4</v>
       </c>
       <c r="I17" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="17">
         <v>4</v>
       </c>
-      <c r="K17" s="41">
-        <v>5</v>
-      </c>
-      <c r="L17" s="45">
-        <v>16</v>
-      </c>
+      <c r="K17" s="40">
+        <v>3</v>
+      </c>
+      <c r="L17" s="55"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="8">
-        <v>4</v>
-      </c>
-      <c r="E18" s="8">
-        <v>3</v>
-      </c>
-      <c r="F18" s="16">
-        <v>4</v>
-      </c>
-      <c r="G18" s="16">
-        <v>3</v>
-      </c>
-      <c r="H18" s="20">
-        <v>4</v>
-      </c>
-      <c r="I18" s="20">
-        <v>3</v>
-      </c>
-      <c r="J18" s="17">
-        <v>4</v>
-      </c>
-      <c r="K18" s="41">
-        <v>3</v>
-      </c>
-      <c r="L18" s="45"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="45"/>
+      <c r="A19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="55"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="49"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="16"/>
@@ -1478,1339 +1520,1412 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="45"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="55"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="45"/>
+      <c r="B21" s="3">
+        <v>42670</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2</v>
+      </c>
+      <c r="G21" s="16">
+        <v>4</v>
+      </c>
+      <c r="H21" s="20">
+        <v>2</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="17">
+        <v>2</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="45"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="20">
+        <v>1</v>
+      </c>
+      <c r="I22" s="20">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1</v>
+      </c>
+      <c r="K22" s="40">
+        <v>1</v>
+      </c>
+      <c r="L22" s="55"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="45"/>
+      <c r="C23" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3</v>
+      </c>
+      <c r="F23" s="16">
+        <v>2</v>
+      </c>
+      <c r="G23" s="16">
+        <v>2</v>
+      </c>
+      <c r="H23" s="20">
+        <v>2</v>
+      </c>
+      <c r="I23" s="20">
+        <v>2</v>
+      </c>
+      <c r="J23" s="17">
+        <v>2</v>
+      </c>
+      <c r="K23" s="40">
+        <v>3</v>
+      </c>
+      <c r="L23" s="55"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="45"/>
+      <c r="C24" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="20">
+        <v>1</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1</v>
+      </c>
+      <c r="K24" s="40">
+        <v>1</v>
+      </c>
+      <c r="L24" s="55"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="3">
-        <v>42670</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>33</v>
+      <c r="B25" s="3"/>
+      <c r="C25" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="D25" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J25" s="17">
-        <v>2</v>
-      </c>
-      <c r="K25" s="41">
-        <v>0</v>
-      </c>
-      <c r="L25" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="40">
+        <v>1</v>
+      </c>
+      <c r="L25" s="55"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="47" t="s">
-        <v>34</v>
+      <c r="C26" s="44" t="s">
+        <v>26</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
       </c>
       <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="20">
+        <v>1</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1</v>
+      </c>
+      <c r="K26" s="40">
         <v>2</v>
       </c>
-      <c r="F26" s="16">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="20">
-        <v>1</v>
-      </c>
-      <c r="I26" s="20">
-        <v>1</v>
-      </c>
-      <c r="J26" s="17">
-        <v>1</v>
-      </c>
-      <c r="K26" s="41">
-        <v>1</v>
-      </c>
-      <c r="L26" s="45"/>
+      <c r="L26" s="55"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C27" s="47"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="55"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3">
+        <v>42671</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="40">
         <v>2</v>
       </c>
-      <c r="E27" s="8">
-        <v>3</v>
-      </c>
-      <c r="F27" s="16">
-        <v>2</v>
-      </c>
-      <c r="G27" s="16">
-        <v>2</v>
-      </c>
-      <c r="H27" s="20">
-        <v>2</v>
-      </c>
-      <c r="I27" s="20">
-        <v>2</v>
-      </c>
-      <c r="J27" s="17">
-        <v>2</v>
-      </c>
-      <c r="K27" s="41">
-        <v>3</v>
-      </c>
-      <c r="L27" s="45"/>
-    </row>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="16">
-        <v>1</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-      <c r="H28" s="20">
-        <v>1</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="17">
-        <v>1</v>
-      </c>
-      <c r="K28" s="41">
-        <v>1</v>
-      </c>
-      <c r="L28" s="45">
-        <v>4</v>
-      </c>
+      <c r="L28" s="55"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1</v>
+      <c r="C29" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="8">
         <v>1</v>
       </c>
       <c r="F29" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" s="16">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20">
-        <v>1</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="17">
-        <v>1</v>
-      </c>
-      <c r="K29" s="41">
-        <v>1</v>
-      </c>
-      <c r="L29" s="45"/>
+        <v>3</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="20">
+        <v>2</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="40">
+        <v>2</v>
+      </c>
+      <c r="L29" s="55"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="46" t="s">
-        <v>31</v>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
       </c>
       <c r="E30" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="16">
         <v>1</v>
       </c>
       <c r="G30" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="20">
         <v>1</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>49</v>
+      <c r="I30" s="20">
+        <v>1</v>
       </c>
       <c r="J30" s="17">
         <v>1</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="40">
         <v>2</v>
       </c>
-      <c r="L30" s="45">
-        <v>28</v>
-      </c>
+      <c r="L30" s="55"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="45"/>
+      <c r="C31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="20">
+        <v>4</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="17">
+        <v>4</v>
+      </c>
+      <c r="K31" s="40">
+        <v>1</v>
+      </c>
+      <c r="L31" s="55"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-      <c r="B32" s="3">
-        <v>42671</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>43</v>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="16">
         <v>1</v>
       </c>
-      <c r="H32" s="20"/>
+      <c r="H32" s="20">
+        <v>1</v>
+      </c>
       <c r="I32" s="20" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="J32" s="17">
-        <v>0</v>
-      </c>
-      <c r="K32" s="41">
-        <v>2</v>
-      </c>
-      <c r="L32" s="45">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="55"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16">
+        <v>2</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1</v>
+      </c>
+      <c r="H33" s="20">
+        <v>2</v>
+      </c>
+      <c r="I33" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8">
-        <v>1</v>
-      </c>
-      <c r="F33" s="16">
-        <v>4</v>
-      </c>
-      <c r="G33" s="16">
-        <v>3</v>
-      </c>
-      <c r="H33" s="20">
-        <v>0</v>
-      </c>
-      <c r="I33" s="20">
+      <c r="J33" s="17">
         <v>2</v>
       </c>
-      <c r="J33" s="17">
-        <v>0</v>
-      </c>
-      <c r="K33" s="41">
-        <v>2</v>
-      </c>
-      <c r="L33" s="45">
-        <v>8</v>
-      </c>
+      <c r="K33" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="55"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8">
-        <v>2</v>
-      </c>
-      <c r="F34" s="16">
-        <v>1</v>
-      </c>
-      <c r="G34" s="16">
-        <v>2</v>
-      </c>
-      <c r="H34" s="20">
-        <v>1</v>
-      </c>
-      <c r="I34" s="20">
-        <v>1</v>
-      </c>
-      <c r="J34" s="17">
-        <v>1</v>
-      </c>
-      <c r="K34" s="41">
-        <v>2</v>
-      </c>
-      <c r="L34" s="45"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="55"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="20">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="17">
-        <v>4</v>
-      </c>
-      <c r="K35" s="41">
-        <v>1</v>
-      </c>
-      <c r="L35" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="55"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8">
-        <v>2</v>
-      </c>
-      <c r="F36" s="16">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16">
-        <v>1</v>
-      </c>
-      <c r="H36" s="20">
-        <v>1</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="17">
-        <v>1</v>
-      </c>
-      <c r="K36" s="41" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="55"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" ref="D37:K37" si="0">SUM(D6:D36)</f>
+        <v>40</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K37" s="41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L37" s="56"/>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="45"/>
-    </row>
-    <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="8">
-        <v>2</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1</v>
-      </c>
-      <c r="F37" s="16">
-        <v>2</v>
-      </c>
-      <c r="G37" s="16">
-        <v>1</v>
-      </c>
-      <c r="H37" s="20">
-        <v>2</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="17">
-        <v>2</v>
-      </c>
-      <c r="K37" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" s="45"/>
-    </row>
-    <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="8"/>
+      <c r="B38" s="3">
+        <v>42674</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="8">
+        <v>8</v>
+      </c>
       <c r="E38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F38" s="16">
+        <v>8</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="H38" s="20">
+        <v>8</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="J38" s="17">
+        <v>8</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="55"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="A39" s="9"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="4" t="s">
-        <v>39</v>
+      <c r="C39" s="44" t="s">
+        <v>45</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="I39" s="20">
+        <v>1</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K39" s="40">
+        <v>1</v>
+      </c>
+      <c r="L39" s="55"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
+      <c r="C40" s="44" t="s">
+        <v>46</v>
+      </c>
       <c r="D40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E40" s="8">
+        <v>7</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="I40" s="20">
+        <v>6</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K40" s="40">
+        <v>6</v>
+      </c>
+      <c r="L40" s="55"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="7">
-        <f t="shared" ref="D41:L41" si="0">SUM(D6:D40)</f>
-        <v>40</v>
-      </c>
-      <c r="E41" s="7">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G41" s="7">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="J41" s="7">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="K41" s="42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="L41" s="42">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
+      <c r="A41" s="9"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="55"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="A42" s="9"/>
       <c r="B42" s="3">
-        <v>42674</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>21</v>
+        <v>42675</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>27</v>
       </c>
       <c r="D42" s="8">
-        <v>8</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H42" s="20">
-        <v>8</v>
-      </c>
-      <c r="I42" s="20">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="17">
-        <v>8</v>
-      </c>
-      <c r="K42" s="41">
-        <v>0</v>
-      </c>
-      <c r="L42" s="45">
-        <v>32</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="55"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="46" t="s">
-        <v>50</v>
+      <c r="C43" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="D43" s="8">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F43" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H43" s="20">
-        <v>0</v>
-      </c>
-      <c r="I43" s="20">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="J43" s="17">
-        <v>0</v>
-      </c>
-      <c r="K43" s="41">
-        <v>1</v>
-      </c>
-      <c r="L43" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="55"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0</v>
+      <c r="C44" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="8">
-        <v>7</v>
-      </c>
-      <c r="F44" s="16">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="20">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="I44" s="20">
-        <v>6</v>
-      </c>
-      <c r="J44" s="17">
-        <v>0</v>
-      </c>
-      <c r="K44" s="41">
-        <v>6</v>
-      </c>
-      <c r="L44" s="45"/>
+        <v>4</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="40">
+        <v>4</v>
+      </c>
+      <c r="L44" s="55"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
+      <c r="C45" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="D45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E45" s="8">
+        <v>2</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="I45" s="20">
+        <v>1</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="41"/>
-      <c r="L45" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K45" s="40">
+        <v>1</v>
+      </c>
+      <c r="L45" s="55"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
-      <c r="B46" s="3">
-        <v>42675</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="8">
-        <v>7</v>
+      <c r="B46" s="3"/>
+      <c r="C46" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="8">
-        <v>0</v>
-      </c>
-      <c r="F46" s="16">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="20">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="I46" s="20">
-        <v>0</v>
-      </c>
-      <c r="J46" s="17">
-        <v>7</v>
-      </c>
-      <c r="K46" s="41">
-        <v>0</v>
-      </c>
-      <c r="L46" s="45">
-        <v>32</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="40">
+        <v>2</v>
+      </c>
+      <c r="L46" s="55"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="8">
-        <v>1</v>
-      </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-      <c r="F47" s="16">
-        <v>1</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="20">
-        <v>1</v>
-      </c>
-      <c r="I47" s="20">
-        <v>0</v>
-      </c>
-      <c r="J47" s="17">
-        <v>1</v>
-      </c>
-      <c r="K47" s="41">
-        <v>0</v>
-      </c>
-      <c r="L47" s="45"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="55"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="8">
-        <v>0</v>
-      </c>
-      <c r="E48" s="8">
-        <v>4</v>
-      </c>
-      <c r="F48" s="16">
-        <v>0</v>
+      <c r="B48" s="3">
+        <v>42676</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="20">
-        <v>0</v>
-      </c>
-      <c r="I48" s="20">
-        <v>4</v>
-      </c>
-      <c r="J48" s="17">
-        <v>0</v>
-      </c>
-      <c r="K48" s="41">
-        <v>4</v>
-      </c>
-      <c r="L48" s="45"/>
+        <v>44</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="55"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="8">
-        <v>0</v>
-      </c>
-      <c r="E49" s="8">
-        <v>2</v>
-      </c>
-      <c r="F49" s="16">
-        <v>0</v>
+      <c r="B49" s="9"/>
+      <c r="C49" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49" s="20">
-        <v>0</v>
-      </c>
-      <c r="I49" s="20">
-        <v>1</v>
-      </c>
-      <c r="J49" s="17">
-        <v>0</v>
-      </c>
-      <c r="K49" s="41">
-        <v>1</v>
-      </c>
-      <c r="L49" s="45"/>
+        <v>44</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="55"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="8">
-        <v>0</v>
-      </c>
-      <c r="E50" s="8">
-        <v>2</v>
-      </c>
-      <c r="F50" s="16">
-        <v>0</v>
+      <c r="B50" s="9"/>
+      <c r="C50" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H50" s="20">
-        <v>0</v>
-      </c>
-      <c r="I50" s="20">
-        <v>2</v>
-      </c>
-      <c r="J50" s="17">
-        <v>0</v>
-      </c>
-      <c r="K50" s="41">
-        <v>2</v>
-      </c>
-      <c r="L50" s="45"/>
+        <v>44</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="55"/>
     </row>
     <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>10</v>
+      <c r="C51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2</v>
+      </c>
+      <c r="E51" s="8">
+        <v>4</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="I51" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L51" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K51" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="55"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="3">
-        <v>42676</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="8">
-        <v>0</v>
-      </c>
-      <c r="E52" s="8">
-        <v>0</v>
+      <c r="A52" s="33"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H52" s="20">
-        <v>0</v>
-      </c>
-      <c r="I52" s="20">
-        <v>0</v>
-      </c>
-      <c r="J52" s="17">
-        <v>0</v>
-      </c>
-      <c r="K52" s="41">
-        <v>0</v>
-      </c>
-      <c r="L52" s="45">
-        <v>12</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="55"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="8">
-        <v>0</v>
-      </c>
-      <c r="E53" s="8">
-        <v>0</v>
-      </c>
-      <c r="F53" s="16">
-        <v>0</v>
+      <c r="C53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" s="20">
-        <v>0</v>
-      </c>
-      <c r="I53" s="20">
-        <v>0</v>
-      </c>
-      <c r="J53" s="17">
-        <v>0</v>
-      </c>
-      <c r="K53" s="41">
-        <v>0</v>
-      </c>
-      <c r="L53" s="45">
-        <v>8</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="55"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="46" t="s">
-        <v>24</v>
+      <c r="B54" s="3"/>
+      <c r="C54" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="D54" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54" s="8">
-        <v>0</v>
-      </c>
-      <c r="F54" s="16">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="20">
-        <v>0</v>
-      </c>
-      <c r="I54" s="20">
-        <v>0</v>
-      </c>
-      <c r="J54" s="17">
-        <v>0</v>
-      </c>
-      <c r="K54" s="41">
-        <v>0</v>
-      </c>
-      <c r="L54" s="45">
-        <v>12</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="55"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" s="55"/>
+    </row>
+    <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="20">
         <v>2</v>
       </c>
-      <c r="E55" s="8">
-        <v>4</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="45"/>
-    </row>
-    <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="41">
+      <c r="I56" s="20">
         <v>5</v>
       </c>
-      <c r="L56" s="45"/>
+      <c r="J56" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L56" s="55"/>
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c r="D57" s="8">
+        <v>3</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="20" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="H57" s="20">
+        <v>6</v>
+      </c>
+      <c r="I57" s="20">
+        <v>3</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L57" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K57" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="55"/>
     </row>
     <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="8">
+      <c r="B58" s="46"/>
+      <c r="C58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="17">
+        <v>2</v>
+      </c>
+      <c r="K58" s="40">
         <v>3</v>
       </c>
-      <c r="E58" s="8">
-        <v>4</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="17"/>
-      <c r="K58" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L58" s="45"/>
+      <c r="L58" s="55"/>
     </row>
     <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="J59" s="17">
+        <v>6</v>
+      </c>
+      <c r="K59" s="40">
+        <v>5</v>
+      </c>
+      <c r="L59" s="55"/>
     </row>
     <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J60" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" s="45"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="57"/>
     </row>
     <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="3">
+        <v>42677</v>
+      </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="8">
-        <v>3</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="8">
+        <v>4</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G61" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="41">
-        <v>3</v>
-      </c>
-      <c r="L61" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" s="57"/>
     </row>
     <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
-      <c r="B62" s="48"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G62" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20">
-        <v>3</v>
-      </c>
-      <c r="J62" s="17"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="17">
+        <v>6</v>
+      </c>
+      <c r="K62" s="40">
+        <v>6</v>
+      </c>
+      <c r="L62" s="57"/>
     </row>
     <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I63" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K63" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L63" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K63" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L63" s="57"/>
     </row>
     <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="50"/>
+      <c r="C64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="20">
+        <v>6</v>
+      </c>
+      <c r="I64" s="20">
+        <v>2</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L64" s="57"/>
     </row>
     <row r="65" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
-      <c r="B65" s="3">
-        <v>42677</v>
-      </c>
+      <c r="B65" s="9"/>
       <c r="C65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="D65" s="8">
+        <v>6</v>
+      </c>
       <c r="E65" s="8">
-        <v>6</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="50"/>
+        <v>2</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" s="57"/>
     </row>
     <row r="66" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20">
+        <v>61</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="16">
         <v>6</v>
       </c>
-      <c r="J66" s="17"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="50"/>
+      <c r="G66" s="16">
+        <v>6</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="57"/>
     </row>
     <row r="67" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="C67" s="4"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="16"/>
@@ -2818,17 +2933,13 @@
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="41">
-        <v>5</v>
-      </c>
-      <c r="L67" s="50"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="57"/>
     </row>
     <row r="68" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
-      <c r="C68" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="16"/>
@@ -2836,141 +2947,271 @@
       <c r="H68" s="20"/>
       <c r="I68" s="20"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="41">
-        <v>1</v>
-      </c>
-      <c r="L68" s="50"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="57"/>
     </row>
     <row r="69" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
+      <c r="B69" s="3">
+        <v>42678</v>
+      </c>
       <c r="C69" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="50"/>
+      <c r="D69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K69" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L69" s="57"/>
     </row>
     <row r="70" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16">
-        <v>6</v>
-      </c>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="50"/>
+        <v>73</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K70" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L70" s="57"/>
     </row>
     <row r="71" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="50"/>
+      <c r="C71" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="8">
+        <v>2</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L71" s="57"/>
     </row>
     <row r="72" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="50"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="8">
+        <v>6</v>
+      </c>
+      <c r="E72" s="8">
+        <v>4</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="57"/>
     </row>
     <row r="73" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="50"/>
+      <c r="C73" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="20">
+        <v>6</v>
+      </c>
+      <c r="I73" s="20">
+        <v>5</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L73" s="57"/>
     </row>
     <row r="74" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="50"/>
+      <c r="C74" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" s="17">
+        <v>6</v>
+      </c>
+      <c r="K74" s="40">
+        <v>6</v>
+      </c>
+      <c r="L74" s="57"/>
     </row>
     <row r="75" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="50"/>
+      <c r="C75" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="16">
+        <v>6</v>
+      </c>
+      <c r="G75" s="16">
+        <v>6</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L75" s="57"/>
     </row>
     <row r="76" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
-      <c r="B76" s="3">
-        <v>42678</v>
-      </c>
+      <c r="B76" s="9"/>
       <c r="C76" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8">
-        <v>6</v>
-      </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="50"/>
+        <v>71</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="20">
+        <v>1</v>
+      </c>
+      <c r="J76" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="57"/>
     </row>
     <row r="77" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="16"/>
@@ -2978,254 +3219,329 @@
       <c r="H77" s="20"/>
       <c r="I77" s="20"/>
       <c r="J77" s="17"/>
-      <c r="K77" s="41">
-        <v>6</v>
-      </c>
-      <c r="L77" s="50"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="57"/>
     </row>
     <row r="78" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
+      <c r="B78" s="3">
+        <v>42679</v>
+      </c>
       <c r="C78" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="I78" s="20">
-        <v>8</v>
-      </c>
-      <c r="J78" s="17"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="50"/>
+        <v>4</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L78" s="57"/>
     </row>
     <row r="79" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="C79" s="4"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="16"/>
-      <c r="G79" s="16">
-        <v>6</v>
-      </c>
+      <c r="G79" s="16"/>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="50"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="57"/>
     </row>
     <row r="80" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="50"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="7">
+        <f>SUM(D38:D79)</f>
+        <v>36</v>
+      </c>
+      <c r="E80" s="7">
+        <f>SUM(E38:E79)</f>
+        <v>36</v>
+      </c>
+      <c r="F80" s="7">
+        <f>SUM(F38:F79)</f>
+        <v>36</v>
+      </c>
+      <c r="G80" s="7">
+        <f>SUM(G38:G79)</f>
+        <v>12</v>
+      </c>
+      <c r="H80" s="7">
+        <f>SUM(H38:H79)</f>
+        <v>36</v>
+      </c>
+      <c r="I80" s="7">
+        <f>SUM(I38:I79)</f>
+        <v>38</v>
+      </c>
+      <c r="J80" s="7">
+        <f>SUM(J38:J79)</f>
+        <v>36</v>
+      </c>
+      <c r="K80" s="41">
+        <f>SUM(K38:K79)</f>
+        <v>34</v>
+      </c>
+      <c r="L80" s="56"/>
     </row>
     <row r="81" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
+      <c r="A81" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B81" s="3">
-        <v>42679</v>
+        <v>42681</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="50"/>
+        <v>76</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="20">
+        <v>7</v>
+      </c>
+      <c r="I81" s="20">
+        <v>8</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="55"/>
     </row>
     <row r="82" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="50"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K82" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L82" s="55"/>
     </row>
     <row r="83" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="50"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="8">
+        <v>1</v>
+      </c>
+      <c r="E83" s="8">
+        <v>1</v>
+      </c>
+      <c r="F83" s="16">
+        <v>1</v>
+      </c>
+      <c r="G83" s="16">
+        <v>1</v>
+      </c>
+      <c r="H83" s="20">
+        <v>1</v>
+      </c>
+      <c r="I83" s="20">
+        <v>1</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="55"/>
     </row>
     <row r="84" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="7">
-        <f t="shared" ref="D84:L84" si="1">SUM(D42:D60)</f>
-        <v>21</v>
-      </c>
-      <c r="E84" s="7">
-        <f>SUM(E42:E83)</f>
-        <v>36</v>
-      </c>
-      <c r="F84" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G84" s="7">
-        <f>SUM(G42:G82)</f>
-        <v>12</v>
-      </c>
-      <c r="H84" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I84" s="7">
-        <f>SUM(I42:I82)</f>
-        <v>36</v>
-      </c>
-      <c r="J84" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K84" s="42">
-        <f>SUM(K42:K82)</f>
-        <v>34</v>
-      </c>
-      <c r="L84" s="42">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
+      <c r="A84" s="9"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" s="17">
+        <v>8</v>
+      </c>
+      <c r="K84" s="40">
+        <v>9</v>
+      </c>
+      <c r="L84" s="55"/>
     </row>
     <row r="85" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A85" s="9"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="4"/>
+      <c r="C85" s="44" t="s">
+        <v>77</v>
+      </c>
       <c r="D85" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E85" s="8">
+        <v>3</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K85" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L85" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K85" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L85" s="55"/>
     </row>
     <row r="86" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>10</v>
+      <c r="C86" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="8">
+        <v>7</v>
+      </c>
+      <c r="E86" s="8">
+        <v>5</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K86" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L86" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K86" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L86" s="55"/>
     </row>
     <row r="87" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
-      <c r="B87" s="3">
-        <v>42681</v>
-      </c>
-      <c r="C87" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" s="8">
-        <v>8</v>
-      </c>
-      <c r="E87" s="8">
-        <v>10</v>
+      <c r="B87" s="3"/>
+      <c r="C87" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F87" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G87" s="16">
-        <v>10</v>
-      </c>
-      <c r="H87" s="20">
-        <v>8</v>
-      </c>
-      <c r="I87" s="20">
-        <v>10</v>
-      </c>
-      <c r="J87" s="17">
-        <v>8</v>
-      </c>
-      <c r="K87" s="41">
-        <v>10</v>
-      </c>
-      <c r="L87" s="45">
-        <v>32</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K87" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L87" s="55"/>
     </row>
     <row r="88" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="46" t="s">
-        <v>71</v>
-      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="16"/>
@@ -3233,474 +3549,658 @@
       <c r="H88" s="20"/>
       <c r="I88" s="20"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="41">
-        <v>8</v>
-      </c>
-      <c r="L88" s="45"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="55"/>
     </row>
     <row r="89" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="45"/>
+      <c r="B89" s="3">
+        <v>42682</v>
+      </c>
+      <c r="C89" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="8">
+        <v>8</v>
+      </c>
+      <c r="E89" s="8">
+        <v>8</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="55"/>
     </row>
     <row r="90" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="45"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="8">
+        <v>2</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="20">
+        <v>1</v>
+      </c>
+      <c r="J90" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K90" s="40">
+        <v>3</v>
+      </c>
+      <c r="L90" s="55"/>
     </row>
     <row r="91" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="45"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="20">
+        <v>3</v>
+      </c>
+      <c r="J91" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="55"/>
     </row>
     <row r="92" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="4"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="D92" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J92" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K92" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L92" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="J92" s="17">
+        <v>8</v>
+      </c>
+      <c r="K92" s="40">
+        <v>7</v>
+      </c>
+      <c r="L92" s="55"/>
     </row>
     <row r="93" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
-      <c r="B93" s="3">
-        <v>42682</v>
-      </c>
-      <c r="C93" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="8">
-        <v>5</v>
+      <c r="B93" s="46"/>
+      <c r="C93" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="16">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H93" s="20">
-        <v>5</v>
-      </c>
-      <c r="I93" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J93" s="17">
-        <v>5</v>
-      </c>
-      <c r="K93" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L93" s="45">
-        <v>20</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I93" s="20">
+        <v>6</v>
+      </c>
+      <c r="J93" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K93" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L93" s="55"/>
     </row>
     <row r="94" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="4"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D94" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="16">
+        <v>8</v>
+      </c>
+      <c r="G94" s="16">
         <v>10</v>
       </c>
-      <c r="E94" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>10</v>
-      </c>
       <c r="H94" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K94" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L94" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K94" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="55"/>
     </row>
     <row r="95" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
-      <c r="B95" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="8">
-        <v>3</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="16">
-        <v>3</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="20">
-        <v>3</v>
-      </c>
-      <c r="I95" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J95" s="17">
-        <v>3</v>
-      </c>
-      <c r="K95" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L95" s="45">
-        <v>12</v>
-      </c>
+      <c r="B95" s="46"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="55"/>
     </row>
     <row r="96" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="4"/>
+      <c r="B96" s="59">
+        <v>42683</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D96" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H96" s="20">
+        <v>4</v>
+      </c>
+      <c r="I96" s="20">
+        <v>6</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K96" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L96" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K96" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L96" s="55"/>
     </row>
     <row r="97" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="4"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="D97" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H97" s="20">
+        <v>4</v>
+      </c>
+      <c r="I97" s="20">
+        <v>5</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K97" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K97" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L97" s="55"/>
     </row>
     <row r="98" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="6" t="s">
+      <c r="A98" s="9"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" s="8">
+        <v>5</v>
+      </c>
+      <c r="E98" s="8">
+        <v>9</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="17">
+        <v>8</v>
+      </c>
+      <c r="K98" s="40">
         <v>11</v>
       </c>
-      <c r="D98" s="7">
-        <f t="shared" ref="D98:L98" si="2">SUM(D85:D97)</f>
-        <v>16</v>
-      </c>
-      <c r="E98" s="7">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F98" s="7">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G98" s="7">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H98" s="7">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I98" s="7">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J98" s="7">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="K98" s="42">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="L98" s="42">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
+      <c r="L98" s="55"/>
     </row>
     <row r="99" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="45"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="16">
+        <v>8</v>
+      </c>
+      <c r="G99" s="16">
+        <v>11</v>
+      </c>
+      <c r="H99" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K99" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L99" s="55"/>
     </row>
     <row r="100" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="12"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="19">
-        <f>SUM(D98,D41,D84)</f>
-        <v>77</v>
-      </c>
-      <c r="E100" s="19">
-        <f>SUM(E98,E41,E84)</f>
+      <c r="A100" s="9"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="8">
+        <v>3</v>
+      </c>
+      <c r="E100" s="8">
+        <v>2</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="55"/>
+    </row>
+    <row r="101" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="9"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="40"/>
+      <c r="L101" s="55"/>
+    </row>
+    <row r="102" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="9"/>
+      <c r="B102" s="59">
+        <v>42684</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="8">
+        <v>1</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="55"/>
+    </row>
+    <row r="103" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="9"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="8">
+        <v>8</v>
+      </c>
+      <c r="E103" s="8">
+        <v>7</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="20">
+        <v>8</v>
+      </c>
+      <c r="I103" s="20">
+        <v>8</v>
+      </c>
+      <c r="J103" s="17">
+        <v>7</v>
+      </c>
+      <c r="K103" s="40">
+        <v>5</v>
+      </c>
+      <c r="L103" s="55"/>
+    </row>
+    <row r="104" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="9"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K104" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L104" s="55"/>
+    </row>
+    <row r="105" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="9"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F100" s="18">
-        <f>SUM(F98,F41,F84)</f>
-        <v>72</v>
-      </c>
-      <c r="G100" s="18">
-        <f>SUM(G98,G41,G84)</f>
-        <v>63</v>
-      </c>
-      <c r="H100" s="21">
-        <f>SUM(H98,H41,H84)</f>
-        <v>72</v>
-      </c>
-      <c r="I100" s="21">
-        <f>SUM(I98,I41,I84)</f>
-        <v>77</v>
-      </c>
-      <c r="J100" s="22">
-        <f>SUM(J98,J41,J84)</f>
-        <v>72</v>
-      </c>
-      <c r="K100" s="44">
-        <f>SUM(K98,K41,K84)</f>
-        <v>92</v>
-      </c>
-      <c r="L100" s="44">
-        <f>SUM(L98,L41,L84)</f>
-        <v>316</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-    </row>
-    <row r="102" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-    </row>
-    <row r="103" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-    </row>
-    <row r="104" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-    </row>
-    <row r="105" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
+      <c r="D105" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="16">
+        <v>8</v>
+      </c>
+      <c r="G105" s="16">
+        <v>8</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K105" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L105" s="55"/>
     </row>
     <row r="106" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="15"/>
+      <c r="A106" s="9"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="17">
+        <v>1</v>
+      </c>
+      <c r="K106" s="40">
+        <v>3</v>
+      </c>
+      <c r="L106" s="55"/>
     </row>
     <row r="107" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="40"/>
+      <c r="L107" s="55"/>
     </row>
     <row r="108" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="7">
+        <f>SUM(D81:D106)</f>
+        <v>32</v>
+      </c>
+      <c r="E108" s="7">
+        <f>SUM(E81:E106)</f>
+        <v>38</v>
+      </c>
+      <c r="F108" s="7">
+        <f>SUM(F81:F106)</f>
+        <v>32</v>
+      </c>
+      <c r="G108" s="7">
+        <f>SUM(G81:G106)</f>
+        <v>38</v>
+      </c>
+      <c r="H108" s="7">
+        <f>SUM(H81:H106)</f>
+        <v>32</v>
+      </c>
+      <c r="I108" s="7">
+        <f>SUM(I81:I106)</f>
+        <v>38</v>
+      </c>
+      <c r="J108" s="7">
+        <f>SUM(J81:J106)</f>
+        <v>32</v>
+      </c>
+      <c r="K108" s="41">
+        <f>SUM(K81:K106)</f>
+        <v>38</v>
+      </c>
+      <c r="L108" s="56"/>
     </row>
     <row r="109" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="55"/>
     </row>
     <row r="110" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="19">
+        <f>SUM(D108,D37,D80)</f>
+        <v>108</v>
+      </c>
+      <c r="E110" s="19">
+        <f>SUM(E108,E37,E80)</f>
+        <v>114</v>
+      </c>
+      <c r="F110" s="18">
+        <f>SUM(F108,F37,F80)</f>
+        <v>108</v>
+      </c>
+      <c r="G110" s="18">
+        <f>SUM(G108,G37,G80)</f>
+        <v>91</v>
+      </c>
+      <c r="H110" s="21">
+        <f>SUM(H108,H37,H80)</f>
+        <v>108</v>
+      </c>
+      <c r="I110" s="21">
+        <f>SUM(I108,I37,I80)</f>
+        <v>107</v>
+      </c>
+      <c r="J110" s="22">
+        <f>SUM(J108,J37,J80)</f>
+        <v>108</v>
+      </c>
+      <c r="K110" s="43">
+        <f>SUM(K108,K37,K80)</f>
+        <v>112</v>
+      </c>
+      <c r="L110" s="58"/>
     </row>
     <row r="111" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
@@ -4598,6 +5098,136 @@
       <c r="I179" s="15"/>
       <c r="J179" s="15"/>
       <c r="K179" s="15"/>
+    </row>
+    <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="15"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="15"/>
+    </row>
+    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="15"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="15"/>
+    </row>
+    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="15"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="15"/>
+    </row>
+    <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="15"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="15"/>
+    </row>
+    <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="15"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="15"/>
+    </row>
+    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="15"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="15"/>
+    </row>
+    <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="15"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="15"/>
+      <c r="K186" s="15"/>
+    </row>
+    <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="15"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="15"/>
+    </row>
+    <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="15"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="15"/>
+      <c r="K188" s="15"/>
+    </row>
+    <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="15"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="15"/>
+      <c r="K189" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4773,6 +5403,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
@@ -4780,15 +5419,6 @@
     <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4810,25 +5440,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDA2D9-0F29-4761-875B-F7795DA98BB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD477B0-7FDC-4B12-8DED-561A832309BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD477B0-7FDC-4B12-8DED-561A832309BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDA2D9-0F29-4761-875B-F7795DA98BB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>